--- a/runs/run388/NotionalETEOutput388.xlsx
+++ b/runs/run388/NotionalETEOutput388.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX0_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_450.MISSILE_ANGERMAX0_450</t>
+    <t>MISSILE_BRAVER2_449.MISSILE_BRAVER2_449</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1490.63187101494</v>
+        <v>-1447.791388687813</v>
       </c>
       <c r="J2">
-        <v>1953.587731948734</v>
+        <v>2069.615639574095</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1442.910093264802</v>
+        <v>-1529.676455725008</v>
       </c>
       <c r="J3">
-        <v>2014.913131906031</v>
+        <v>1935.875930436935</v>
       </c>
       <c r="K3">
-        <v>307.5348081879589</v>
+        <v>318.8047974559456</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1394.287182730862</v>
+        <v>-1497.556411767118</v>
       </c>
       <c r="J4">
-        <v>1919.458952109381</v>
+        <v>1876.027461201485</v>
       </c>
       <c r="K4">
-        <v>563.159513082933</v>
+        <v>581.1459879328653</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1461.996873715758</v>
+        <v>-1339.043421286437</v>
       </c>
       <c r="J5">
-        <v>1900.713284672715</v>
+        <v>1906.15061477613</v>
       </c>
       <c r="K5">
-        <v>874.5573066236808</v>
+        <v>859.3212171549346</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1420.34929761199</v>
+        <v>-1396.567006275766</v>
       </c>
       <c r="J6">
-        <v>1843.330584249544</v>
+        <v>1766.641367997816</v>
       </c>
       <c r="K6">
-        <v>1119.892064720232</v>
+        <v>1068.787888863539</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1350.045607643591</v>
+        <v>-1345.604963252177</v>
       </c>
       <c r="J7">
-        <v>1784.659646037569</v>
+        <v>1766.648484781314</v>
       </c>
       <c r="K7">
-        <v>1342.321934798945</v>
+        <v>1369.703013006033</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1272.833141053219</v>
+        <v>-1277.809510359559</v>
       </c>
       <c r="J8">
-        <v>1788.682362649697</v>
+        <v>1725.46550393086</v>
       </c>
       <c r="K8">
-        <v>1666.410304996945</v>
+        <v>1612.003699170632</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.72608132375208</v>
+        <v>-96.42143261820796</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1265.316066316213</v>
+        <v>-1244.414426275511</v>
       </c>
       <c r="J9">
-        <v>1576.470475967719</v>
+        <v>1614.40767130756</v>
       </c>
       <c r="K9">
-        <v>1797.72073801138</v>
+        <v>1892.535051291916</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>222.1770899156661</v>
+        <v>222.297791900389</v>
       </c>
       <c r="G10">
-        <v>-83.88600448218747</v>
+        <v>-80.28240064669014</v>
       </c>
       <c r="H10">
-        <v>863.0985231285368</v>
+        <v>882.5988253412739</v>
       </c>
       <c r="I10">
-        <v>-1219.699287531493</v>
+        <v>-1257.012368157282</v>
       </c>
       <c r="J10">
-        <v>1682.201314621825</v>
+        <v>1547.215992963641</v>
       </c>
       <c r="K10">
-        <v>1929.218795513743</v>
+        <v>1996.231369401876</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>175.6506086784818</v>
+        <v>163.8709332083417</v>
       </c>
       <c r="G11">
-        <v>-66.19431923497241</v>
+        <v>-67.61320447844872</v>
       </c>
       <c r="H11">
-        <v>1024.212512919109</v>
+        <v>1082.778944090945</v>
       </c>
       <c r="I11">
-        <v>-1206.398098834569</v>
+        <v>-1217.589921332891</v>
       </c>
       <c r="J11">
-        <v>1560.26412102813</v>
+        <v>1565.579580823881</v>
       </c>
       <c r="K11">
-        <v>2099.900302761362</v>
+        <v>2263.406317921758</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>139.5510894202202</v>
+        <v>136.1932600210903</v>
       </c>
       <c r="G12">
-        <v>-51.01154600761599</v>
+        <v>-48.60874008930714</v>
       </c>
       <c r="H12">
-        <v>1224.364162112081</v>
+        <v>1170.010871033953</v>
       </c>
       <c r="I12">
-        <v>-1205.863257909455</v>
+        <v>-1146.407541883855</v>
       </c>
       <c r="J12">
-        <v>1482.033910941567</v>
+        <v>1528.346344863263</v>
       </c>
       <c r="K12">
-        <v>2292.12417829421</v>
+        <v>2397.198088874978</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.4119624242029</v>
+        <v>124.5925028756541</v>
       </c>
       <c r="G13">
-        <v>-33.75463858263683</v>
+        <v>-33.65244965015032</v>
       </c>
       <c r="H13">
-        <v>1240.433273084119</v>
+        <v>1320.494927500253</v>
       </c>
       <c r="I13">
-        <v>-1125.828653308964</v>
+        <v>-1151.174552903161</v>
       </c>
       <c r="J13">
-        <v>1441.123770810885</v>
+        <v>1454.895044362034</v>
       </c>
       <c r="K13">
-        <v>2389.809777211677</v>
+        <v>2417.924325216435</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>113.5868692625471</v>
+        <v>114.8713532869542</v>
       </c>
       <c r="G14">
-        <v>-16.66812461392361</v>
+        <v>-17.33843889814453</v>
       </c>
       <c r="H14">
-        <v>1387.073898170613</v>
+        <v>1277.327830607406</v>
       </c>
       <c r="I14">
-        <v>-1042.397204798847</v>
+        <v>-1108.852488131756</v>
       </c>
       <c r="J14">
-        <v>1364.561146478899</v>
+        <v>1459.030235566263</v>
       </c>
       <c r="K14">
-        <v>2685.734322300841</v>
+        <v>2558.324549926999</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>96.15383023335541</v>
+        <v>100.7996756222219</v>
       </c>
       <c r="G15">
-        <v>-0.9686716752250026</v>
+        <v>-0.935976766691854</v>
       </c>
       <c r="H15">
-        <v>1339.825588069307</v>
+        <v>1429.438559907673</v>
       </c>
       <c r="I15">
-        <v>-1077.093443071291</v>
+        <v>-1034.975997355922</v>
       </c>
       <c r="J15">
-        <v>1319.117883731952</v>
+        <v>1306.282679305494</v>
       </c>
       <c r="K15">
-        <v>2870.219338121623</v>
+        <v>2717.166175880687</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.8666301586244</v>
+        <v>96.77395573179818</v>
       </c>
       <c r="G16">
-        <v>15.76979241964271</v>
+        <v>15.67219059550854</v>
       </c>
       <c r="H16">
-        <v>1466.615946480194</v>
+        <v>1474.354387177837</v>
       </c>
       <c r="I16">
-        <v>-1022.62817455878</v>
+        <v>-1034.659439353441</v>
       </c>
       <c r="J16">
-        <v>1347.241792699516</v>
+        <v>1261.913608164999</v>
       </c>
       <c r="K16">
-        <v>2915.447575417363</v>
+        <v>2990.378293280231</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>82.97929832246896</v>
+        <v>86.66037289178249</v>
       </c>
       <c r="G17">
-        <v>31.84089702255439</v>
+        <v>31.11167918615663</v>
       </c>
       <c r="H17">
-        <v>1496.439533337513</v>
+        <v>1492.301143566609</v>
       </c>
       <c r="I17">
-        <v>-1011.285068823574</v>
+        <v>-999.7861230095704</v>
       </c>
       <c r="J17">
-        <v>1210.235200969964</v>
+        <v>1286.633331327769</v>
       </c>
       <c r="K17">
-        <v>2899.935462538449</v>
+        <v>2829.88812930711</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.79638330399528</v>
+        <v>85.85655076294749</v>
       </c>
       <c r="G18">
-        <v>46.82201199466081</v>
+        <v>49.32790727419789</v>
       </c>
       <c r="H18">
-        <v>1516.162494273752</v>
+        <v>1520.635128190324</v>
       </c>
       <c r="I18">
-        <v>-950.782835679364</v>
+        <v>-895.0450719155625</v>
       </c>
       <c r="J18">
-        <v>1267.48661248196</v>
+        <v>1264.307492076533</v>
       </c>
       <c r="K18">
-        <v>2988.63594869378</v>
+        <v>3061.463191739315</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.17814146510365</v>
+        <v>79.21473318565056</v>
       </c>
       <c r="G19">
-        <v>64.99959781686631</v>
+        <v>65.18947453647058</v>
       </c>
       <c r="H19">
-        <v>1534.964641665012</v>
+        <v>1597.316930007416</v>
       </c>
       <c r="I19">
-        <v>-853.535949871388</v>
+        <v>-883.6363308673504</v>
       </c>
       <c r="J19">
-        <v>1148.218663682868</v>
+        <v>1124.055042464005</v>
       </c>
       <c r="K19">
-        <v>3018.208591623982</v>
+        <v>3252.056993019841</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.30805609232767</v>
+        <v>75.8902517403006</v>
       </c>
       <c r="G20">
-        <v>82.77855447116649</v>
+        <v>83.03727178880344</v>
       </c>
       <c r="H20">
-        <v>1501.04037198886</v>
+        <v>1529.820459454546</v>
       </c>
       <c r="I20">
-        <v>-818.0834797615353</v>
+        <v>-820.9686786665195</v>
       </c>
       <c r="J20">
-        <v>1158.084537199811</v>
+        <v>1165.159242977868</v>
       </c>
       <c r="K20">
-        <v>3301.437318606363</v>
+        <v>3199.537188441011</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.98629539523984</v>
+        <v>72.86799340088859</v>
       </c>
       <c r="G21">
-        <v>98.96619674956978</v>
+        <v>98.61306343008506</v>
       </c>
       <c r="H21">
-        <v>1577.084348591947</v>
+        <v>1658.043138160145</v>
       </c>
       <c r="I21">
-        <v>-797.5668223316255</v>
+        <v>-830.2840604297228</v>
       </c>
       <c r="J21">
-        <v>1110.594159064635</v>
+        <v>1095.36460134231</v>
       </c>
       <c r="K21">
-        <v>3299.914542403471</v>
+        <v>3184.048176841926</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>71.49268160672504</v>
+        <v>68.46769832940068</v>
       </c>
       <c r="G22">
-        <v>110.5577742020304</v>
+        <v>109.5714326929045</v>
       </c>
       <c r="H22">
-        <v>1626.097627515834</v>
+        <v>1607.430106906742</v>
       </c>
       <c r="I22">
-        <v>-726.3365352153758</v>
+        <v>-763.8280774318118</v>
       </c>
       <c r="J22">
-        <v>1019.006787658953</v>
+        <v>979.1363841261665</v>
       </c>
       <c r="K22">
-        <v>3342.410233192639</v>
+        <v>3314.295926993253</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.4258589729383</v>
+        <v>65.80202028913214</v>
       </c>
       <c r="G23">
-        <v>124.7145090806818</v>
+        <v>126.2729870511251</v>
       </c>
       <c r="H23">
-        <v>1649.696840897933</v>
+        <v>1660.200703030931</v>
       </c>
       <c r="I23">
-        <v>-675.2345866319026</v>
+        <v>-702.6609541442249</v>
       </c>
       <c r="J23">
-        <v>952.3351627505617</v>
+        <v>1022.046241948152</v>
       </c>
       <c r="K23">
-        <v>3084.788691250209</v>
+        <v>3243.950170743551</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.49491832896501</v>
+        <v>66.62949581685227</v>
       </c>
       <c r="G24">
-        <v>146.0518290069676</v>
+        <v>152.6365633171645</v>
       </c>
       <c r="H24">
-        <v>1583.388163480558</v>
+        <v>1704.125467334665</v>
       </c>
       <c r="I24">
-        <v>-635.1778298170507</v>
+        <v>-663.3918339348644</v>
       </c>
       <c r="J24">
-        <v>902.5374484026737</v>
+        <v>948.5117080503503</v>
       </c>
       <c r="K24">
-        <v>3080.887666745709</v>
+        <v>3154.555952714692</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.27145663398284</v>
+        <v>63.20890288783617</v>
       </c>
       <c r="G25">
-        <v>163.9026787985451</v>
+        <v>167.4979939102417</v>
       </c>
       <c r="H25">
-        <v>1612.955272893264</v>
+        <v>1625.725530412872</v>
       </c>
       <c r="I25">
-        <v>-581.597295622298</v>
+        <v>-599.6383607596138</v>
       </c>
       <c r="J25">
-        <v>899.8043063261543</v>
+        <v>906.3820963759404</v>
       </c>
       <c r="K25">
-        <v>3223.813384440677</v>
+        <v>3210.865444343218</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.65978771676694</v>
+        <v>59.88084729124854</v>
       </c>
       <c r="G26">
-        <v>188.2108754304442</v>
+        <v>175.7235005892903</v>
       </c>
       <c r="H26">
-        <v>1620.833680152956</v>
+        <v>1616.060807062054</v>
       </c>
       <c r="I26">
-        <v>-552.5586807153664</v>
+        <v>-550.3383598269218</v>
       </c>
       <c r="J26">
-        <v>797.1156510334732</v>
+        <v>820.7164887536119</v>
       </c>
       <c r="K26">
-        <v>3232.617473228484</v>
+        <v>3001.051414651329</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.03548447721887</v>
+        <v>55.40999655180043</v>
       </c>
       <c r="G27">
-        <v>198.6454871423199</v>
+        <v>206.8253246622338</v>
       </c>
       <c r="H27">
-        <v>1751.18592351129</v>
+        <v>1731.30772783319</v>
       </c>
       <c r="I27">
-        <v>-481.9323341124638</v>
+        <v>-489.093773920945</v>
       </c>
       <c r="J27">
-        <v>753.1779292606716</v>
+        <v>784.7435121708709</v>
       </c>
       <c r="K27">
-        <v>3162.659745225207</v>
+        <v>3080.071092010961</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.95807631156338</v>
+        <v>59.07319516502575</v>
       </c>
       <c r="G28">
-        <v>211.3751787843886</v>
+        <v>216.0732853896404</v>
       </c>
       <c r="H28">
-        <v>1801.748177282777</v>
+        <v>1644.079460100011</v>
       </c>
       <c r="I28">
-        <v>-428.7533287809192</v>
+        <v>-437.5257156463483</v>
       </c>
       <c r="J28">
-        <v>767.9847049444627</v>
+        <v>737.4173695319636</v>
       </c>
       <c r="K28">
-        <v>3101.541186162623</v>
+        <v>3080.188962873102</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.04162006572496</v>
+        <v>56.55271914343201</v>
       </c>
       <c r="G29">
-        <v>224.9005131114657</v>
+        <v>232.8649678120988</v>
       </c>
       <c r="H29">
-        <v>1703.187557620344</v>
+        <v>1815.225899397749</v>
       </c>
       <c r="I29">
-        <v>-385.3583005707909</v>
+        <v>-393.5125702531542</v>
       </c>
       <c r="J29">
-        <v>698.4855244838968</v>
+        <v>680.2741863708277</v>
       </c>
       <c r="K29">
-        <v>2751.575604355985</v>
+        <v>2937.772641881372</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.39399843742693</v>
+        <v>52.90860261107174</v>
       </c>
       <c r="G30">
-        <v>247.9975342444954</v>
+        <v>255.3002683729891</v>
       </c>
       <c r="H30">
-        <v>1824.151284837084</v>
+        <v>1794.059035547119</v>
       </c>
       <c r="I30">
-        <v>-328.988783627117</v>
+        <v>-310.0692945319294</v>
       </c>
       <c r="J30">
-        <v>648.5282521589243</v>
+        <v>658.2546213485906</v>
       </c>
       <c r="K30">
-        <v>2766.762804433101</v>
+        <v>2764.555240413721</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.28740614359814</v>
+        <v>51.61349574519922</v>
       </c>
       <c r="G31">
-        <v>261.7701777323288</v>
+        <v>253.5535714552669</v>
       </c>
       <c r="H31">
-        <v>1743.915820776578</v>
+        <v>1826.192857100116</v>
       </c>
       <c r="I31">
-        <v>-264.5308885409643</v>
+        <v>-256.0609312489751</v>
       </c>
       <c r="J31">
-        <v>578.9254322629154</v>
+        <v>617.3487008470654</v>
       </c>
       <c r="K31">
-        <v>2546.771420954395</v>
+        <v>2587.32722612291</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>48.90653932445344</v>
+        <v>50.30716389024433</v>
       </c>
       <c r="G32">
-        <v>274.0989903896311</v>
+        <v>281.4021526986726</v>
       </c>
       <c r="H32">
-        <v>1840.520667219931</v>
+        <v>1708.225772600796</v>
       </c>
       <c r="I32">
-        <v>-209.057273104596</v>
+        <v>-202.0688277463424</v>
       </c>
       <c r="J32">
-        <v>544.3527165658885</v>
+        <v>561.3512274004765</v>
       </c>
       <c r="K32">
-        <v>2633.686979797902</v>
+        <v>2540.928481350662</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>47.81774340867416</v>
+        <v>47.81888999363365</v>
       </c>
       <c r="G33">
-        <v>298.0211193550195</v>
+        <v>288.4185798824107</v>
       </c>
       <c r="H33">
-        <v>1774.460332132138</v>
+        <v>1781.595124123342</v>
       </c>
       <c r="I33">
-        <v>-141.0237872801116</v>
+        <v>-152.8490483561349</v>
       </c>
       <c r="J33">
-        <v>494.247803187581</v>
+        <v>481.3466202943113</v>
       </c>
       <c r="K33">
-        <v>2391.557758707934</v>
+        <v>2350.862929476456</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.68978822214807</v>
+        <v>49.19425847638121</v>
       </c>
       <c r="G34">
-        <v>315.4799967135712</v>
+        <v>324.5040164339144</v>
       </c>
       <c r="H34">
-        <v>1793.152737336826</v>
+        <v>1852.797602470192</v>
       </c>
       <c r="I34">
-        <v>-82.70296187434886</v>
+        <v>-83.46842224882894</v>
       </c>
       <c r="J34">
-        <v>452.8247147526978</v>
+        <v>460.7654497569534</v>
       </c>
       <c r="K34">
-        <v>2133.37102202395</v>
+        <v>2206.211863224094</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>50.22592922848179</v>
+        <v>47.26714774232498</v>
       </c>
       <c r="G35">
-        <v>321.3523121018563</v>
+        <v>343.7331928310797</v>
       </c>
       <c r="H35">
-        <v>1763.635930790609</v>
+        <v>1884.876186757211</v>
       </c>
       <c r="I35">
-        <v>-18.66483495798452</v>
+        <v>-19.00129953022751</v>
       </c>
       <c r="J35">
-        <v>385.1245701695689</v>
+        <v>379.9796599407828</v>
       </c>
       <c r="K35">
-        <v>1994.576583819559</v>
+        <v>2054.830647985829</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.8955898718074</v>
+        <v>48.87079966094947</v>
       </c>
       <c r="G36">
-        <v>338.6974937209052</v>
+        <v>338.2314891220158</v>
       </c>
       <c r="H36">
-        <v>1886.051241862518</v>
+        <v>1757.312283240893</v>
       </c>
       <c r="I36">
-        <v>47.34208808774589</v>
+        <v>48.08893791149687</v>
       </c>
       <c r="J36">
-        <v>360.2180081083129</v>
+        <v>360.7598619970863</v>
       </c>
       <c r="K36">
-        <v>1825.729826311898</v>
+        <v>1792.775675235796</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.28963285429924</v>
+        <v>45.06229158254504</v>
       </c>
       <c r="G37">
-        <v>372.7542595989549</v>
+        <v>357.5134498202029</v>
       </c>
       <c r="H37">
-        <v>1796.229070161948</v>
+        <v>1848.039939849715</v>
       </c>
       <c r="I37">
-        <v>117.2076385093677</v>
+        <v>119.1920294087135</v>
       </c>
       <c r="J37">
-        <v>287.4372567679531</v>
+        <v>283.5107712886018</v>
       </c>
       <c r="K37">
-        <v>1698.460378123079</v>
+        <v>1694.202644402186</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.79695040566617</v>
+        <v>47.32963189548878</v>
       </c>
       <c r="G38">
-        <v>379.535013423856</v>
+        <v>379.3153727000107</v>
       </c>
       <c r="H38">
-        <v>1786.24175856362</v>
+        <v>1787.082311173075</v>
       </c>
       <c r="I38">
-        <v>184.1589069153732</v>
+        <v>192.1651872931243</v>
       </c>
       <c r="J38">
-        <v>244.440284756955</v>
+        <v>240.9869470590395</v>
       </c>
       <c r="K38">
-        <v>1388.98297626374</v>
+        <v>1400.938578286615</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.45503880209203</v>
+        <v>43.74516242936929</v>
       </c>
       <c r="G39">
-        <v>383.3538327022758</v>
+        <v>412.7065316559035</v>
       </c>
       <c r="H39">
-        <v>1933.189315650048</v>
+        <v>1807.824115725302</v>
       </c>
       <c r="I39">
-        <v>251.6532697679661</v>
+        <v>252.1910841495133</v>
       </c>
       <c r="J39">
-        <v>194.1970518282573</v>
+        <v>206.4038802599939</v>
       </c>
       <c r="K39">
-        <v>1145.00471640802</v>
+        <v>1201.960676615908</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.20391323601032</v>
+        <v>43.41681529225905</v>
       </c>
       <c r="G40">
-        <v>397.5239943605574</v>
+        <v>406.1422541649152</v>
       </c>
       <c r="H40">
-        <v>1914.416542270436</v>
+        <v>1794.648126816648</v>
       </c>
       <c r="I40">
-        <v>317.7344813632639</v>
+        <v>314.4750616180223</v>
       </c>
       <c r="J40">
-        <v>145.6900958094368</v>
+        <v>144.9008750232967</v>
       </c>
       <c r="K40">
-        <v>935.6443646162264</v>
+        <v>866.5851602836029</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.90925319485704</v>
+        <v>45.15029619539908</v>
       </c>
       <c r="G41">
-        <v>423.5571531083233</v>
+        <v>438.8839728114788</v>
       </c>
       <c r="H41">
-        <v>1841.161902509802</v>
+        <v>1974.210590431954</v>
       </c>
       <c r="I41">
-        <v>393.6489088995755</v>
+        <v>416.5788871844836</v>
       </c>
       <c r="J41">
-        <v>103.1108915331934</v>
+        <v>100.154589354255</v>
       </c>
       <c r="K41">
-        <v>615.7657007669451</v>
+        <v>646.7528290386106</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.08515003035151</v>
+        <v>43.96336498449579</v>
       </c>
       <c r="G42">
-        <v>464.7552086945898</v>
+        <v>445.4157145228651</v>
       </c>
       <c r="H42">
-        <v>1916.310560666944</v>
+        <v>1834.806813307376</v>
       </c>
       <c r="I42">
-        <v>472.4248583236777</v>
+        <v>469.8116646892127</v>
       </c>
       <c r="J42">
-        <v>53.82932380867157</v>
+        <v>55.8724091941222</v>
       </c>
       <c r="K42">
-        <v>328.2121684012442</v>
+        <v>325.2055794838239</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.81166275546281</v>
+        <v>41.25673280594869</v>
       </c>
       <c r="G43">
-        <v>446.0385081792692</v>
+        <v>475.0682609812735</v>
       </c>
       <c r="H43">
-        <v>1954.300515079172</v>
+        <v>1986.107092213536</v>
       </c>
       <c r="I43">
-        <v>540.0064852482141</v>
+        <v>553.4706250377756</v>
       </c>
       <c r="J43">
-        <v>5.090841593881135</v>
+        <v>5.234232948999156</v>
       </c>
       <c r="K43">
-        <v>34.2299887257665</v>
+        <v>34.52171820098093</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.85211554534616</v>
+        <v>41.29200093115028</v>
       </c>
       <c r="G44">
-        <v>482.0638901653244</v>
+        <v>501.5871252035591</v>
       </c>
       <c r="H44">
-        <v>1987.132803701773</v>
+        <v>1999.200455781146</v>
       </c>
       <c r="I44">
-        <v>638.39675763563</v>
+        <v>662.8208976232532</v>
       </c>
       <c r="J44">
-        <v>-43.64452949999387</v>
+        <v>-42.94935972121464</v>
       </c>
       <c r="K44">
-        <v>-284.0025507886688</v>
+        <v>-279.0361099112117</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>43.04651483933477</v>
+        <v>42.76925978317738</v>
       </c>
       <c r="G45">
-        <v>511.6521187363148</v>
+        <v>480.9721737255266</v>
       </c>
       <c r="H45">
-        <v>1835.306483662131</v>
+        <v>1965.24647816767</v>
       </c>
       <c r="I45">
-        <v>755.8248948431212</v>
+        <v>693.3162498888499</v>
       </c>
       <c r="J45">
-        <v>-94.4696307775708</v>
+        <v>-90.71827596090277</v>
       </c>
       <c r="K45">
-        <v>-588.5008375870317</v>
+        <v>-604.2362883348012</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.4435691588121</v>
+        <v>39.70680472855793</v>
       </c>
       <c r="G46">
-        <v>527.7542105127138</v>
+        <v>513.6388650274611</v>
       </c>
       <c r="H46">
-        <v>1933.221548539701</v>
+        <v>1869.419719685134</v>
       </c>
       <c r="I46">
-        <v>824.2534878244902</v>
+        <v>791.7298995704178</v>
       </c>
       <c r="J46">
-        <v>-144.4738775078804</v>
+        <v>-147.5666539855823</v>
       </c>
       <c r="K46">
-        <v>-932.6690772321308</v>
+        <v>-991.9065844947229</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.42937323242226</v>
+        <v>39.25330990249798</v>
       </c>
       <c r="G47">
-        <v>520.5892822746951</v>
+        <v>542.4942663405559</v>
       </c>
       <c r="H47">
-        <v>1858.009842763886</v>
+        <v>1939.813257203586</v>
       </c>
       <c r="I47">
-        <v>859.3631553823519</v>
+        <v>870.4289712381101</v>
       </c>
       <c r="J47">
-        <v>-195.0014026298844</v>
+        <v>-193.9720226268983</v>
       </c>
       <c r="K47">
-        <v>-1352.298420592141</v>
+        <v>-1307.071037754311</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.57639163611677</v>
+        <v>39.01665096516429</v>
       </c>
       <c r="G48">
-        <v>552.7803402867497</v>
+        <v>541.424742188051</v>
       </c>
       <c r="H48">
-        <v>2021.175111703181</v>
+        <v>1874.47140789771</v>
       </c>
       <c r="I48">
-        <v>961.59793859206</v>
+        <v>961.9532891442345</v>
       </c>
       <c r="J48">
-        <v>-244.7213478729346</v>
+        <v>-249.3143629271961</v>
       </c>
       <c r="K48">
-        <v>-1758.212345748979</v>
+        <v>-1631.71200125816</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.2815698069991</v>
+        <v>37.18951439127278</v>
       </c>
       <c r="G49">
-        <v>563.0943370330712</v>
+        <v>549.3541956225716</v>
       </c>
       <c r="H49">
-        <v>1935.357518898539</v>
+        <v>2029.251330534576</v>
       </c>
       <c r="I49">
-        <v>1101.755401629337</v>
+        <v>1107.995738707287</v>
       </c>
       <c r="J49">
-        <v>-290.7521021144329</v>
+        <v>-296.3741445584815</v>
       </c>
       <c r="K49">
-        <v>-2159.210961167193</v>
+        <v>-2121.833958210959</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.10613229778983</v>
+        <v>39.14461563127874</v>
       </c>
       <c r="G50">
-        <v>584.3815129571561</v>
+        <v>580.6549220042704</v>
       </c>
       <c r="H50">
-        <v>2017.51939100842</v>
+        <v>2013.963864499558</v>
       </c>
       <c r="I50">
-        <v>1203.358170366275</v>
+        <v>1202.134382618364</v>
       </c>
       <c r="J50">
-        <v>-341.9913530012428</v>
+        <v>-344.2922931201832</v>
       </c>
       <c r="K50">
-        <v>-2562.104602654931</v>
+        <v>-2473.194730895108</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.40527966361223</v>
+        <v>36.18254981752022</v>
       </c>
       <c r="G51">
-        <v>584.5156545068796</v>
+        <v>564.4867169882916</v>
       </c>
       <c r="H51">
-        <v>1870.930106665184</v>
+        <v>1926.043827414595</v>
       </c>
       <c r="I51">
-        <v>1219.640793557254</v>
+        <v>1314.415729070486</v>
       </c>
       <c r="J51">
-        <v>-368.5270993567548</v>
+        <v>-396.5073668906051</v>
       </c>
       <c r="K51">
-        <v>-2901.245819213105</v>
+        <v>-3042.178570601387</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.07152915810322</v>
+        <v>37.86885314240383</v>
       </c>
       <c r="G52">
-        <v>615.269614674755</v>
+        <v>601.5631155045761</v>
       </c>
       <c r="H52">
-        <v>2051.519825696214</v>
+        <v>2015.664789236351</v>
       </c>
       <c r="I52">
-        <v>1334.563268584291</v>
+        <v>1304.505578880726</v>
       </c>
       <c r="J52">
-        <v>-445.2382235381993</v>
+        <v>-450.9867100091322</v>
       </c>
       <c r="K52">
-        <v>-3215.726866981115</v>
+        <v>-3321.892739675511</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.92168056386833</v>
+        <v>38.67568404650732</v>
       </c>
       <c r="G53">
-        <v>623.1346429763207</v>
+        <v>635.7941359968515</v>
       </c>
       <c r="H53">
-        <v>1935.917837459002</v>
+        <v>1958.982856177345</v>
       </c>
       <c r="I53">
-        <v>1500.913423564084</v>
+        <v>1409.802768357394</v>
       </c>
       <c r="J53">
-        <v>-472.6097040600349</v>
+        <v>-470.6552381463804</v>
       </c>
       <c r="K53">
-        <v>-3988.89669366687</v>
+        <v>-3783.833280570152</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.80856568886708</v>
+        <v>35.97473574565036</v>
       </c>
       <c r="G54">
-        <v>629.9240125688134</v>
+        <v>622.8115923224231</v>
       </c>
       <c r="H54">
-        <v>2063.845289195416</v>
+        <v>2076.989510198077</v>
       </c>
       <c r="I54">
-        <v>1584.62990749687</v>
+        <v>1554.268087644557</v>
       </c>
       <c r="J54">
-        <v>-541.3108276364079</v>
+        <v>-511.560967284424</v>
       </c>
       <c r="K54">
-        <v>-4103.039066281691</v>
+        <v>-4093.386357921825</v>
       </c>
     </row>
   </sheetData>
